--- a/biology/Zoologie/Fat_Bear_Week/Fat_Bear_Week.xlsx
+++ b/biology/Zoologie/Fat_Bear_Week/Fat_Bear_Week.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fat Bear Week est une semaine des mois de septembre ou octobre pendant laquelle se conclut un concours informel qui voit des internautes élire le grizzli s'étant manifestement le plus engraissé parmi ses congénères qui préparent leur hibernation en pêchant le saumon dans les Brooks Falls du parc national de Katmai, en Alaska. 
 Lancé en 2014 sous le nom de Fat Bear Tuesday, car la délibération finale a lieu un mardi, l'événement a rapidement gagné en popularité, des webcams permettant d'observer les animaux à distance pendant toute la saison qui précède.
@@ -512,7 +524,9 @@
           <t>Gagnants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Depuis 2021 existe le concours de Fat Bear Junior
 2014 : 480 Otis
